--- a/src/main/resources/商品表设计.xlsx
+++ b/src/main/resources/商品表设计.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ZLX\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,119 +105,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>商品详情中的图片最多五张最少一张，表中实际并没有此字段，是从商品图片表中查询出后再组装到这个对象里面返回给前台的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品选择分类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品参数表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图片表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addImageTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加图片时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，商品名称，需要数据名称模糊搜索商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此分类商品库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addClassTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加分类时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addParamTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加参数时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情中的商品分类，表中实际并没有此字段，是从商品选择分类表中查询出后再组装到这个对象里面返回给前台的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情中的商品参数，表中实际并没有此字段，是从商品参数表中查询出后再组装到这个对象里面返回给前台的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图文详情表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情中的图文详情，表中实际并没有此字段，是从商品图文详情表中查询出后再组装到这个对象里面返回给前台的，一个商品最多5条图文详情记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_type</t>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型id，对应商品类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>productImages</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品详情中的图片最多五张最少一张，表中实际并没有此字段，是从商品图片表中查询出后再组装到这个对象里面返回给前台的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品选择分类表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品参数表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品图片表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addImageTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加图片时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品价格价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息表id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键，自增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息表id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键，商品名称，需要数据名称模糊搜索商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此分类商品库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addClassTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加分类时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addParamTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加参数时间</t>
+    <t>productCalsss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productImgText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_image</t>
+  </si>
+  <si>
+    <t>商品类型 如： 小米手环2 黑色 + 红色腕带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此分类的商品价格</t>
+  </si>
+  <si>
+    <t>t_product_imageTtext</t>
+  </si>
+  <si>
+    <t>文字说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +288,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -261,19 +324,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -328,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,34 +634,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="144.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -575,7 +671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -583,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -591,201 +687,284 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
     </row>

--- a/src/main/resources/商品表设计.xlsx
+++ b/src/main/resources/商品表设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +266,17 @@
   </si>
   <si>
     <t>t_product_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>参数说明 value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品参数 key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -659,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -692,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -714,10 +721,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -754,7 +761,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -762,26 +769,26 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -789,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -829,7 +836,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -853,7 +860,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -861,15 +868,15 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -882,10 +889,10 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -893,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -914,58 +921,66 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
         <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/商品表设计.xlsx
+++ b/src/main/resources/商品表设计.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\WX_Project\WeChatShop_Java\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,14 +282,47 @@
   </si>
   <si>
     <t>商品参数 key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_collection</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>主键，自增</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>商品信息表id</t>
+  </si>
+  <si>
+    <t>用户表md5加密的openid</t>
+  </si>
+  <si>
+    <t>添加商品收藏的时间</t>
+  </si>
+  <si>
+    <t>商品收藏表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openidMd5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,27 +679,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="144.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +708,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -678,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -686,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -694,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -703,7 +741,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -711,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -719,7 +757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -727,7 +765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -735,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -743,7 +781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -751,7 +789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -759,7 +797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -767,7 +805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -775,7 +813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -783,7 +821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -791,7 +829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -799,7 +837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -807,7 +845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -815,7 +853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -823,7 +861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -831,7 +869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -839,7 +877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -847,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -855,7 +893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -863,7 +901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -871,7 +909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -879,7 +917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -887,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -895,7 +933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -903,7 +941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -911,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -919,7 +957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -927,7 +965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -935,7 +973,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -943,7 +981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -951,7 +989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -959,7 +997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -967,7 +1005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -975,12 +1013,52 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>45</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/商品表设计.xlsx
+++ b/src/main/resources/商品表设计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,26 @@
   <si>
     <t>addTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_shoppingCart</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>商品添加购物车数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productClassId</t>
+  </si>
+  <si>
+    <t>商品分类表id</t>
   </si>
 </sst>
 </file>
@@ -687,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1061,6 +1081,62 @@
         <v>72</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
